--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -4673,7 +4673,7 @@
   <dimension ref="A1:D1393"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1372" workbookViewId="0">
-      <selection activeCell="D1313" sqref="D1313:D1393"/>
+      <selection activeCell="F1392" sqref="F1392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
